--- a/src/test/resources/Documents/4173/Actual/JobPlanning.xlsx
+++ b/src/test/resources/Documents/4173/Actual/JobPlanning.xlsx
@@ -1716,13 +1716,13 @@
         <v>41</v>
       </c>
       <c r="B8" t="s" s="99">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s" s="100">
         <v>18</v>
       </c>
       <c r="D8" t="s" s="101">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s" s="102">
         <v>18</v>
@@ -1746,7 +1746,7 @@
         <v>18</v>
       </c>
       <c r="L8" t="s" s="109">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="M8" t="s" s="110">
         <v>18</v>
@@ -1755,10 +1755,10 @@
         <v>18</v>
       </c>
       <c r="O8" t="s" s="112">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="P8" t="s" s="113">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
@@ -1766,13 +1766,13 @@
         <v>41</v>
       </c>
       <c r="B9" t="s" s="115">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s" s="116">
         <v>18</v>
       </c>
       <c r="D9" t="s" s="117">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s" s="118">
         <v>18</v>
@@ -1796,7 +1796,7 @@
         <v>18</v>
       </c>
       <c r="L9" t="s" s="125">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M9" t="s" s="126">
         <v>18</v>
@@ -1805,10 +1805,10 @@
         <v>18</v>
       </c>
       <c r="O9" t="s" s="128">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="P9" t="s" s="129">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10">
@@ -1816,13 +1816,13 @@
         <v>41</v>
       </c>
       <c r="B10" t="s" s="131">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s" s="132">
         <v>18</v>
       </c>
       <c r="D10" t="s" s="133">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s" s="134">
         <v>18</v>
@@ -1855,10 +1855,10 @@
         <v>18</v>
       </c>
       <c r="O10" t="s" s="144">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="P10" t="s" s="145">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11">

--- a/src/test/resources/Documents/4173/Actual/JobPlanning.xlsx
+++ b/src/test/resources/Documents/4173/Actual/JobPlanning.xlsx
@@ -1716,13 +1716,13 @@
         <v>41</v>
       </c>
       <c r="B8" t="s" s="99">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s" s="100">
         <v>18</v>
       </c>
       <c r="D8" t="s" s="101">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s" s="102">
         <v>18</v>
@@ -1755,10 +1755,10 @@
         <v>18</v>
       </c>
       <c r="O8" t="s" s="112">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="P8" t="s" s="113">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9">
@@ -1766,13 +1766,13 @@
         <v>41</v>
       </c>
       <c r="B9" t="s" s="115">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s" s="116">
         <v>18</v>
       </c>
       <c r="D9" t="s" s="117">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s" s="118">
         <v>18</v>
@@ -1796,7 +1796,7 @@
         <v>18</v>
       </c>
       <c r="L9" t="s" s="125">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="M9" t="s" s="126">
         <v>18</v>
@@ -1805,10 +1805,10 @@
         <v>18</v>
       </c>
       <c r="O9" t="s" s="128">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="P9" t="s" s="129">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10">
@@ -1816,13 +1816,13 @@
         <v>41</v>
       </c>
       <c r="B10" t="s" s="131">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s" s="132">
         <v>18</v>
       </c>
       <c r="D10" t="s" s="133">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E10" t="s" s="134">
         <v>18</v>
@@ -1846,7 +1846,7 @@
         <v>18</v>
       </c>
       <c r="L10" t="s" s="141">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M10" t="s" s="142">
         <v>18</v>
@@ -1855,10 +1855,10 @@
         <v>18</v>
       </c>
       <c r="O10" t="s" s="144">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="P10" t="s" s="145">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11">

--- a/src/test/resources/Documents/4173/Actual/JobPlanning.xlsx
+++ b/src/test/resources/Documents/4173/Actual/JobPlanning.xlsx
@@ -65,44 +65,44 @@
     <t>Banner</t>
   </si>
   <si>
+    <t>WF Print F 4x0</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Placeholder - Integration Dal</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>Not allocated</t>
+  </si>
+  <si>
+    <t>ISM Dallas</t>
+  </si>
+  <si>
+    <t>Integration Validation</t>
+  </si>
+  <si>
+    <t>Cut</t>
+  </si>
+  <si>
+    <t>Zund 3XL3200 - #1</t>
+  </si>
+  <si>
     <t>OKTP</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Ok to Plate</t>
   </si>
   <si>
     <t>54</t>
-  </si>
-  <si>
-    <t>Not allocated</t>
   </si>
   <si>
     <t>Ok to Plate
 Integration Validation</t>
-  </si>
-  <si>
-    <t>WF Print F 4x0</t>
-  </si>
-  <si>
-    <t>Placeholder - Integration Dal</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>ISM Dallas</t>
-  </si>
-  <si>
-    <t>Integration Validation</t>
-  </si>
-  <si>
-    <t>Cut</t>
-  </si>
-  <si>
-    <t>Zund 3XL3200 - #1</t>
   </si>
   <si>
     <t>Banner - Digital Proof</t>
@@ -1446,7 +1446,7 @@
         <v>18</v>
       </c>
       <c r="L2" t="s" s="13">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M2" t="s" s="14">
         <v>18</v>
@@ -1455,10 +1455,10 @@
         <v>18</v>
       </c>
       <c r="O2" t="s" s="16">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="P2" t="s" s="17">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -1466,13 +1466,13 @@
         <v>16</v>
       </c>
       <c r="B3" t="s" s="19">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s" s="20">
         <v>18</v>
       </c>
       <c r="D3" t="s" s="21">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s" s="22">
         <v>18</v>
@@ -1481,7 +1481,7 @@
         <v>18</v>
       </c>
       <c r="G3" t="s" s="24">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s" s="25">
         <v>18</v>
@@ -1496,7 +1496,7 @@
         <v>18</v>
       </c>
       <c r="L3" t="s" s="29">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="M3" t="s" s="30">
         <v>18</v>
@@ -1505,10 +1505,10 @@
         <v>18</v>
       </c>
       <c r="O3" t="s" s="32">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="P3" t="s" s="33">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
@@ -1516,22 +1516,22 @@
         <v>16</v>
       </c>
       <c r="B4" t="s" s="35">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s" s="36">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s" s="37">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s" s="38">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s" s="39">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s" s="40">
         <v>28</v>
-      </c>
-      <c r="C4" t="s" s="36">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s" s="37">
-        <v>29</v>
-      </c>
-      <c r="E4" t="s" s="38">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s" s="39">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s" s="40">
-        <v>25</v>
       </c>
       <c r="H4" t="s" s="41">
         <v>18</v>
@@ -1555,7 +1555,7 @@
         <v>18</v>
       </c>
       <c r="O4" t="s" s="48">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="P4" t="s" s="49">
         <v>29</v>
@@ -1716,13 +1716,13 @@
         <v>41</v>
       </c>
       <c r="B8" t="s" s="99">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s" s="100">
         <v>18</v>
       </c>
       <c r="D8" t="s" s="101">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s" s="102">
         <v>18</v>
@@ -1746,7 +1746,7 @@
         <v>18</v>
       </c>
       <c r="L8" t="s" s="109">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M8" t="s" s="110">
         <v>18</v>
@@ -1755,10 +1755,10 @@
         <v>18</v>
       </c>
       <c r="O8" t="s" s="112">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="P8" t="s" s="113">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
@@ -1766,13 +1766,13 @@
         <v>41</v>
       </c>
       <c r="B9" t="s" s="115">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s" s="116">
         <v>18</v>
       </c>
       <c r="D9" t="s" s="117">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E9" t="s" s="118">
         <v>18</v>
@@ -1805,10 +1805,10 @@
         <v>18</v>
       </c>
       <c r="O9" t="s" s="128">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="P9" t="s" s="129">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10">
@@ -1816,13 +1816,13 @@
         <v>41</v>
       </c>
       <c r="B10" t="s" s="131">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s" s="132">
         <v>18</v>
       </c>
       <c r="D10" t="s" s="133">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s" s="134">
         <v>18</v>
@@ -1846,19 +1846,19 @@
         <v>18</v>
       </c>
       <c r="L10" t="s" s="141">
+        <v>18</v>
+      </c>
+      <c r="M10" t="s" s="142">
+        <v>18</v>
+      </c>
+      <c r="N10" t="s" s="143">
+        <v>18</v>
+      </c>
+      <c r="O10" t="s" s="144">
         <v>26</v>
       </c>
-      <c r="M10" t="s" s="142">
-        <v>18</v>
-      </c>
-      <c r="N10" t="s" s="143">
-        <v>18</v>
-      </c>
-      <c r="O10" t="s" s="144">
-        <v>27</v>
-      </c>
       <c r="P10" t="s" s="145">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11">

--- a/src/test/resources/Documents/4173/Actual/JobPlanning.xlsx
+++ b/src/test/resources/Documents/4173/Actual/JobPlanning.xlsx
@@ -1716,13 +1716,13 @@
         <v>41</v>
       </c>
       <c r="B8" t="s" s="99">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s" s="100">
         <v>18</v>
       </c>
       <c r="D8" t="s" s="101">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s" s="102">
         <v>18</v>
@@ -1746,7 +1746,7 @@
         <v>18</v>
       </c>
       <c r="L8" t="s" s="109">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M8" t="s" s="110">
         <v>18</v>
@@ -1755,10 +1755,10 @@
         <v>18</v>
       </c>
       <c r="O8" t="s" s="112">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P8" t="s" s="113">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9">
@@ -1766,13 +1766,13 @@
         <v>41</v>
       </c>
       <c r="B9" t="s" s="115">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s" s="116">
         <v>18</v>
       </c>
       <c r="D9" t="s" s="117">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s" s="118">
         <v>18</v>
@@ -1796,7 +1796,7 @@
         <v>18</v>
       </c>
       <c r="L9" t="s" s="125">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M9" t="s" s="126">
         <v>18</v>
@@ -1805,10 +1805,10 @@
         <v>18</v>
       </c>
       <c r="O9" t="s" s="128">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P9" t="s" s="129">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
@@ -1816,13 +1816,13 @@
         <v>41</v>
       </c>
       <c r="B10" t="s" s="131">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s" s="132">
         <v>18</v>
       </c>
       <c r="D10" t="s" s="133">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E10" t="s" s="134">
         <v>18</v>
@@ -1855,10 +1855,10 @@
         <v>18</v>
       </c>
       <c r="O10" t="s" s="144">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P10" t="s" s="145">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11">
